--- a/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134744F4-D449-4096-A3CB-98A07FBFA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E3E1BE-32CF-4AA1-A18E-60D1B54D4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AC7A38E-96BB-410F-A653-A3F1942EF5CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB39BF0F-9E98-4CF1-820D-94FF728F6086}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
   <si>
     <t>Población según el por que no pagarían para reducir la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 37,19%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro motivo</t>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,22%</t>
+    <t>52,17%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>43,89%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>33,95%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>No puedo permitírmelo (económicamente)</t>
@@ -98,28 +98,28 @@
     <t>36,41%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>Ya pago demasiados impuestos</t>
@@ -128,25 +128,25 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>68,51%</t>
   </si>
   <si>
     <t>41,11%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
@@ -155,433 +155,430 @@
     <t>25,14%</t>
   </si>
   <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
     <t>64,48%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>34,58%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -590,205 +587,202 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>28,64%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
   </si>
   <si>
     <t>40,71%</t>
@@ -797,55 +791,55 @@
     <t>36,62%</t>
   </si>
   <si>
-    <t>44,91%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>15,57%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1260,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95433B35-28A4-4A74-BFB2-265557161234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2E908-C4A8-4617-B16F-6A9489E4E7C4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,13 +1633,13 @@
         <v>4616</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -1654,13 +1648,13 @@
         <v>7119</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -1669,18 +1663,18 @@
         <v>11736</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1692,13 +1686,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1707,13 +1701,13 @@
         <v>3064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1722,13 +1716,13 @@
         <v>4526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1911,7 @@
         <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1926,10 +1920,10 @@
         <v>17816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>93</v>
@@ -1947,13 +1941,13 @@
         <v>43474</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
@@ -1962,13 +1956,13 @@
         <v>34893</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>120</v>
@@ -1977,13 +1971,13 @@
         <v>78367</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2183,7 @@
         <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,7 +2198,7 @@
         <v>8545</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>131</v>
@@ -2234,7 +2228,7 @@
         <v>14351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>136</v>
@@ -2255,13 +2249,13 @@
         <v>97656</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>107</v>
@@ -2270,13 +2264,13 @@
         <v>65867</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>243</v>
@@ -2285,13 +2279,13 @@
         <v>163523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2323,7 @@
         <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -2338,13 +2332,13 @@
         <v>9639</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2353,13 @@
         <v>21466</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2374,13 +2368,13 @@
         <v>21561</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -2389,13 +2383,13 @@
         <v>43027</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2404,13 @@
         <v>26632</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2425,13 +2419,13 @@
         <v>19055</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -2440,13 +2434,13 @@
         <v>45687</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2455,13 @@
         <v>6797</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2476,10 +2470,10 @@
         <v>6448</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>170</v>
@@ -2527,13 +2521,13 @@
         <v>3358</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2542,13 +2536,13 @@
         <v>3746</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2557,13 @@
         <v>60241</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2578,13 +2572,13 @@
         <v>55103</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>146</v>
@@ -2593,18 +2587,18 @@
         <v>115344</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2616,13 +2610,13 @@
         <v>4579</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2631,13 +2625,13 @@
         <v>2123</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2646,13 +2640,13 @@
         <v>6702</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2661,13 @@
         <v>18660</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2682,13 +2676,13 @@
         <v>13702</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -2697,13 +2691,13 @@
         <v>32362</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2712,13 @@
         <v>23140</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>40</v>
@@ -2733,13 +2727,13 @@
         <v>27375</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -2748,13 +2742,13 @@
         <v>50515</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2763,13 @@
         <v>9661</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -2784,13 +2778,13 @@
         <v>14975</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -2799,13 +2793,13 @@
         <v>24636</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,10 +2814,10 @@
         <v>9263</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>220</v>
@@ -2871,13 +2865,13 @@
         <v>65304</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>99</v>
@@ -2886,13 +2880,13 @@
         <v>71556</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>185</v>
@@ -2901,13 +2895,13 @@
         <v>136860</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2984,13 @@
         <v>55798</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>169</v>
@@ -3005,13 +2999,13 @@
         <v>121227</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3020,13 @@
         <v>110940</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>148</v>
@@ -3041,13 +3035,13 @@
         <v>94975</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>301</v>
@@ -3056,13 +3050,13 @@
         <v>205915</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3071,13 @@
         <v>48282</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -3092,13 +3086,13 @@
         <v>36523</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>111</v>
@@ -3107,13 +3101,13 @@
         <v>84805</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3122,13 @@
         <v>27741</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -3143,13 +3137,13 @@
         <v>31459</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M38" s="7">
         <v>84</v>
@@ -3158,13 +3152,13 @@
         <v>59200</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3173,13 @@
         <v>271292</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
         <v>344</v>
@@ -3194,13 +3188,13 @@
         <v>234538</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
         <v>714</v>
@@ -3209,18 +3203,18 @@
         <v>505830</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
